--- a/Nimasa_Inventory/Nimasa_Inventory.xlsx
+++ b/Nimasa_Inventory/Nimasa_Inventory.xlsx
@@ -5,18 +5,19 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esthe\Documents\Projects\Excel_Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esthe\Documents\GitHub\Excel_projects\Nimasa_Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26736F9-7B8B-4549-9A9D-80E1B135DABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BED47A-74C7-49DB-B634-40C8FC85A4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="49h4YqW3Czh2CZK5NlR5G0bMHSdkToVDpmsghFrJg+lxIFXG/2V6Ez4lOGoL8jYW6BP99R/JAv/owKzpgFgY3g==" workbookSaltValue="OiSRsTn2YyXS065tDbUvrg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10530" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ICT_Requests" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="ICT_Requests" sheetId="1" r:id="rId1"/>
     <sheet name="Pivot Table" sheetId="3" state="veryHidden" r:id="rId2"/>
     <sheet name="Calculations" sheetId="2" r:id="rId3"/>
-    <sheet name="Dashboard" sheetId="5" r:id="rId4"/>
+    <sheet name="d" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_NMRDCINVENTORY2025.xlsxTable11" hidden="1">Table1[]</definedName>
@@ -30,13 +31,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
-    <pivotCache cacheId="2" r:id="rId7"/>
-    <pivotCache cacheId="3" r:id="rId8"/>
-    <pivotCache cacheId="4" r:id="rId9"/>
-    <pivotCache cacheId="5" r:id="rId10"/>
-    <pivotCache cacheId="6" r:id="rId11"/>
+    <pivotCache cacheId="84" r:id="rId5"/>
+    <pivotCache cacheId="85" r:id="rId6"/>
+    <pivotCache cacheId="86" r:id="rId7"/>
+    <pivotCache cacheId="87" r:id="rId8"/>
+    <pivotCache cacheId="88" r:id="rId9"/>
+    <pivotCache cacheId="89" r:id="rId10"/>
+    <pivotCache cacheId="90" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1556,7 +1557,226 @@
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <border>
         <left style="medium">
@@ -1756,43 +1976,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial Nova"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1825,37 +2008,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial Nova"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1940,36 +2092,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial Nova"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1985,37 +2107,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial Nova"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2071,38 +2162,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial Nova"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2117,36 +2176,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial Nova"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -10895,11 +10924,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B1680DF-A20B-440D-83CD-C02839B911BC}" name="PivotTable7" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Department">
-  <location ref="D40:E46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9290F761-B22B-4874-967B-3460371F0C2A}" name="PivotTable9" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A179:B186" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="12">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -10907,27 +10938,42 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
-        <item n="Admin Office" x="7"/>
+        <item x="7"/>
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="3"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="3"/>
         <item x="4"/>
+        <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item m="1" x="4"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="3"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -10942,6 +10988,9 @@
     </i>
     <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -10951,45 +11000,113 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Requested_equipments" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="13">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Requested_equipments"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="4"/>
-  </rowHierarchiesUsage>
+  <formats count="2">
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="7">
+    <chartFormat chart="4" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_NMRDC INVENTORY 2025.xlsx!Table1">
-        <x15:activeTabTopLevelEntity name="[Table1]"/>
-      </x15:pivotTableUISettings>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1084DDB3-9607-4D72-916F-B637637F6D17}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1084DDB3-9607-4D72-916F-B637637F6D17}" name="PivotTable1" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="G3:H10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -11068,32 +11185,32 @@
     <dataField name="Count of Requested_equipments" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="7">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="14">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="12">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -11193,1003 +11310,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CB2AD60-27C0-43DA-9803-D635A5CFD4E5}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D72:E177" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="28">
-        <item s="1" x="0"/>
-        <item s="1" x="1"/>
-        <item s="1" x="2"/>
-        <item s="1" x="3"/>
-        <item s="1" x="4"/>
-        <item s="1" x="5"/>
-        <item s="1" x="6"/>
-        <item s="1" x="7"/>
-        <item s="1" x="8"/>
-        <item s="1" x="9"/>
-        <item s="1" x="10"/>
-        <item s="1" x="11"/>
-        <item s="1" x="12"/>
-        <item s="1" x="13"/>
-        <item s="1" x="14"/>
-        <item s="1" x="15"/>
-        <item s="1" x="16"/>
-        <item s="1" x="17"/>
-        <item s="1" x="18"/>
-        <item s="1" x="19"/>
-        <item s="1" x="20"/>
-        <item s="1" x="21"/>
-        <item s="1" x="22"/>
-        <item s="1" x="23"/>
-        <item s="1" x="24"/>
-        <item s="1" x="25"/>
-        <item s="1" x="26"/>
-        <item s="1" x="27"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="105">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Category" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="13">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleMedium6" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="1"/>
-    <rowHierarchyUsage hierarchyUsage="4"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_NMRDC INVENTORY 2025.xlsx!Table1">
-        <x15:activeTabTopLevelEntity name="[Table1]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A86770F7-A207-4EE3-B690-60B4228A3671}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A2:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Requested_equipments" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="4" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="11">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleMedium6" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="4"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_NMRDC INVENTORY 2025.xlsx!Table1">
-        <x15:activeTabTopLevelEntity name="[Table1]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15CA00A5-2E9E-47B3-891C-65BA51C1F290}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Department">
-  <location ref="D3:E15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item n="Admin Office" x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Requested_equipments" fld="0" subtotal="count" baseField="1" baseItem="10"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="13">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="6" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="11">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Requested_equipments"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="2"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_NMRDC INVENTORY 2025.xlsx!Table1">
-        <x15:activeTabTopLevelEntity name="[Table1]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{85043A6A-96FF-49A6-890F-27D7536DE803}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="D18:E37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
-        <item s="1" x="0"/>
-        <item s="1" x="1"/>
-        <item s="1" x="2"/>
-        <item s="1" x="3"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
-        <item s="1" x="0"/>
-        <item s="1" x="1"/>
-        <item s="1" x="2"/>
-        <item s="1" x="3"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="19">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Requested_equipments" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="9" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="11">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleMedium6" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="2"/>
-    <rowHierarchyUsage hierarchyUsage="3"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_NMRDC INVENTORY 2025.xlsx!Table1">
-        <x15:activeTabTopLevelEntity name="[Table1]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B3A70AC-B6A5-4EC8-9791-CB862E20DC23}" name="PivotTable8" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A124:B176" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="52">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Requested_equipments" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79C5456E-8CAF-4830-9291-AEB74A7C2259}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79C5456E-8CAF-4830-9291-AEB74A7C2259}" name="PivotTable5" cacheId="89" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A11:B120" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -12609,13 +11730,476 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9290F761-B22B-4874-967B-3460371F0C2A}" name="PivotTable9" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A179:B186" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A86770F7-A207-4EE3-B690-60B4228A3671}" name="PivotTable3" cacheId="84" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A2:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Requested_equipments" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="4" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="11">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleMedium6" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="4"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_NMRDC INVENTORY 2025.xlsx!Table1">
+        <x15:activeTabTopLevelEntity name="[Table1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{85043A6A-96FF-49A6-890F-27D7536DE803}" name="PivotTable2" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="D18:E37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item s="1" x="0"/>
+        <item s="1" x="1"/>
+        <item s="1" x="2"/>
+        <item s="1" x="3"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item s="1" x="0"/>
+        <item s="1" x="1"/>
+        <item s="1" x="2"/>
+        <item s="1" x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Requested_equipments" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="9" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="11">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleMedium6" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="2"/>
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_NMRDC INVENTORY 2025.xlsx!Table1">
+        <x15:activeTabTopLevelEntity name="[Table1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B1680DF-A20B-440D-83CD-C02839B911BC}" name="PivotTable7" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Department">
+  <location ref="D40:E46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item n="Admin Office" x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="13">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Requested_equipments"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="4"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_NMRDC INVENTORY 2025.xlsx!Table1">
+        <x15:activeTabTopLevelEntity name="[Table1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15CA00A5-2E9E-47B3-891C-65BA51C1F290}" name="PivotTable4" cacheId="87" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Department">
+  <location ref="D3:E15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item n="Admin Office" x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Requested_equipments" fld="0" subtotal="count" baseField="1" baseItem="10"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="22">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="6" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="11">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Requested_equipments"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="2"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_NMRDC INVENTORY 2025.xlsx!Table1">
+        <x15:activeTabTopLevelEntity name="[Table1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B3A70AC-B6A5-4EC8-9791-CB862E20DC23}" name="PivotTable8" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A124:B176" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="12">
         <item x="0"/>
         <item x="1"/>
@@ -12642,41 +12226,167 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item m="1" x="4"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
+    <field x="2"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="52">
     <i>
       <x/>
     </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
       <x v="3"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
     <i>
       <x v="4"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
     <i>
       <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -12688,97 +12398,6 @@
   <dataFields count="1">
     <dataField name="Count of Requested_equipments" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="2">
-    <format dxfId="15">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="7">
-    <chartFormat chart="4" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -12786,6 +12405,416 @@
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CB2AD60-27C0-43DA-9803-D635A5CFD4E5}" name="PivotTable6" cacheId="85" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D72:E177" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="28">
+        <item s="1" x="0"/>
+        <item s="1" x="1"/>
+        <item s="1" x="2"/>
+        <item s="1" x="3"/>
+        <item s="1" x="4"/>
+        <item s="1" x="5"/>
+        <item s="1" x="6"/>
+        <item s="1" x="7"/>
+        <item s="1" x="8"/>
+        <item s="1" x="9"/>
+        <item s="1" x="10"/>
+        <item s="1" x="11"/>
+        <item s="1" x="12"/>
+        <item s="1" x="13"/>
+        <item s="1" x="14"/>
+        <item s="1" x="15"/>
+        <item s="1" x="16"/>
+        <item s="1" x="17"/>
+        <item s="1" x="18"/>
+        <item s="1" x="19"/>
+        <item s="1" x="20"/>
+        <item s="1" x="21"/>
+        <item s="1" x="22"/>
+        <item s="1" x="23"/>
+        <item s="1" x="24"/>
+        <item s="1" x="25"/>
+        <item s="1" x="26"/>
+        <item s="1" x="27"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="105">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Category" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="13">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleMedium6" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="1"/>
+    <rowHierarchyUsage hierarchyUsage="4"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_NMRDC INVENTORY 2025.xlsx!Table1">
+        <x15:activeTabTopLevelEntity name="[Table1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -12846,21 +12875,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BE518C4-A723-47FF-9AB2-C1B15E074480}" name="Table1" displayName="Table1" ref="A1:G235" totalsRowCount="1" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BE518C4-A723-47FF-9AB2-C1B15E074480}" name="Table1" displayName="Table1" ref="A1:G235" totalsRowCount="1" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:G234" xr:uid="{6BE518C4-A723-47FF-9AB2-C1B15E074480}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G234">
     <sortCondition ref="C1:C234"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CDB77B58-8447-4840-B11F-11542E51C7B6}" name="NO." dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{9807DB9D-AA87-4BB7-9968-9C1BA70002C5}" name=" Name" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{4610F6D5-C24C-4CB0-BC8C-B9CC13AA422F}" name="Department" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{70E39709-4F19-4745-8E32-87D0F1C469AA}" name="Requested_equipments" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{D4E92358-3BC3-4002-80F7-13ADCEDC6B97}" name="Category" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{CDB77B58-8447-4840-B11F-11542E51C7B6}" name="NO." dataDxfId="29" totalsRowDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{9807DB9D-AA87-4BB7-9968-9C1BA70002C5}" name=" Name" dataDxfId="28" totalsRowDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{4610F6D5-C24C-4CB0-BC8C-B9CC13AA422F}" name="Department" dataDxfId="27" totalsRowDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{70E39709-4F19-4745-8E32-87D0F1C469AA}" name="Requested_equipments" dataDxfId="26" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{D4E92358-3BC3-4002-80F7-13ADCEDC6B97}" name="Category" dataDxfId="25" totalsRowDxfId="2">
       <calculatedColumnFormula>VLOOKUP(D2, Calculations!$D$2:$F$8, 3, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D604E9B5-D738-4691-8AEF-32357DE1D49F}" name="Serial Number" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{89345DA0-476B-4CA0-B10C-67317191371E}" name="Specification" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{D604E9B5-D738-4691-8AEF-32357DE1D49F}" name="Serial Number" dataDxfId="24" totalsRowDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{89345DA0-476B-4CA0-B10C-67317191371E}" name="Specification" dataDxfId="23" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13132,8 +13161,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H239"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="A2:G234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18951,7 +18980,7 @@
       <c r="D239" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RDdvu1diIeIdoybTCm0S4kZuPry6CTylMywBet70vVeaCFYfQM1LRKFHvOiPJrT8YqR1leI5Q5eKDj8jQqN78Q==" saltValue="RKiFdPxZrz3IYt3sbFB8Fg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21260,8 +21289,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21408,7 +21437,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A7:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A47" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
